--- a/data/trans_orig/Q57-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Edad-trans_orig.xlsx
@@ -608,19 +608,19 @@
         <v>8.306094532417754</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.865459444551687</v>
+        <v>8.865459444551686</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>8.20428935432866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.562304267692676</v>
+        <v>8.562304267692678</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>8.256866411364079</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.722792090040706</v>
+        <v>8.722792090040704</v>
       </c>
     </row>
     <row r="5">
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.18396854046892</v>
+        <v>8.189811730246781</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.688581563720593</v>
+        <v>8.699353982841686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.077212656635055</v>
+        <v>8.080112262125461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.322982129870498</v>
+        <v>8.348688993800122</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.172636417449052</v>
+        <v>8.175733128356129</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.571736078908724</v>
+        <v>8.587020223028345</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.414045565692689</v>
+        <v>8.41884580604137</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.024629371407441</v>
+        <v>9.023250271949831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.31935257940507</v>
+        <v>8.316233340570143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.763946886913191</v>
+        <v>8.754888072582574</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.339034667077605</v>
+        <v>8.336375360053667</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.848575679284961</v>
+        <v>8.855428926007068</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>7.9418755803284</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.383245486171166</v>
+        <v>8.383245486171164</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>8.014878426954823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.432464929179755</v>
+        <v>8.432464929179757</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.977520539103709</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.408439656278295</v>
+        <v>8.408439656278297</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.837363667048251</v>
+        <v>7.829848326338507</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.190818978490952</v>
+        <v>8.189048700662756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.906846472630672</v>
+        <v>7.91156818028599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.282264970366937</v>
+        <v>8.286388929763403</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.908104046073868</v>
+        <v>7.901161765644001</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.292966444410302</v>
+        <v>8.280105619159102</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.049820372966467</v>
+        <v>8.046853700433779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.547268230244301</v>
+        <v>8.555299959112823</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.121367419435609</v>
+        <v>8.120266019834933</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.550115409568081</v>
+        <v>8.559533232156268</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.055210184531683</v>
+        <v>8.055844635541098</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.520313500641924</v>
+        <v>8.507279466621249</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>7.873611387659308</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>8.355299758910476</v>
+        <v>8.355299758910478</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7.840690040899446</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.757308277828828</v>
+        <v>7.754361005734295</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.196355699966844</v>
+        <v>8.21379328144109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.726437820311098</v>
+        <v>7.731105994926792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.24424974494614</v>
+        <v>8.244349497080734</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.771588734844676</v>
+        <v>7.780434883210773</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.269719653219438</v>
+        <v>8.264629344612089</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.996082219667137</v>
+        <v>7.984107096246385</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.488754073097956</v>
+        <v>8.489575666997103</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.94442158371128</v>
+        <v>7.945964927992271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.44483592892756</v>
+        <v>8.447839187487824</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.934233132317631</v>
+        <v>7.937789268291443</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.436010332351104</v>
+        <v>8.435620053938116</v>
       </c>
     </row>
     <row r="13">
@@ -854,7 +854,7 @@
         <v>7.463621674001992</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>8.15297664509103</v>
+        <v>8.152976645091027</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.392363776657512</v>
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.320381845853996</v>
+        <v>7.318481959257309</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.033993607546757</v>
+        <v>8.024754345240682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.262927895950607</v>
+        <v>7.257506075611498</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.826404208886227</v>
+        <v>7.829197199898193</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.334714112883608</v>
+        <v>7.327108220402114</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.957412205881688</v>
+        <v>7.951768851628036</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.615361112854233</v>
+        <v>7.593675732315166</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.273510328799322</v>
+        <v>8.28162243878635</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.512386310839399</v>
+        <v>7.514146217595548</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.02820359071009</v>
+        <v>8.036715569329667</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.522022660064719</v>
+        <v>7.51136337170515</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.128772924559868</v>
+        <v>8.113471958995531</v>
       </c>
     </row>
     <row r="16">
@@ -936,7 +936,7 @@
         <v>7.558393147115973</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.695853198253985</v>
+        <v>7.695853198253984</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>7.080888478814303</v>
@@ -948,7 +948,7 @@
         <v>7.314989372261224</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>7.596877372223236</v>
+        <v>7.596877372223235</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.406597730415391</v>
+        <v>7.427556590876772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.563587139002869</v>
+        <v>7.564422471770441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.912559688452802</v>
+        <v>6.913782629773491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.376865079234823</v>
+        <v>7.382286699962813</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.201862035511963</v>
+        <v>7.19719616401867</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.501842013020647</v>
+        <v>7.505890351420674</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.699009649342231</v>
+        <v>7.71100402684225</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.838099188639704</v>
+        <v>7.837859175225352</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.247690932937887</v>
+        <v>7.235901323761479</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.608800088913004</v>
+        <v>7.613854854754597</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.434363629398551</v>
+        <v>7.416602507968884</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.687677550373992</v>
+        <v>7.687858022177913</v>
       </c>
     </row>
     <row r="19">
@@ -1030,7 +1030,7 @@
         <v>7.102671535590443</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>7.708568478277805</v>
+        <v>7.708568478277804</v>
       </c>
     </row>
     <row r="20">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.196035125840565</v>
+        <v>7.188745227199072</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.763999062454134</v>
+        <v>7.760501499956716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.659374396824243</v>
+        <v>6.67105945140137</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.380857422140416</v>
+        <v>7.384581300570015</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>6.951639983541716</v>
+        <v>6.969582253834211</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.608248066496019</v>
+        <v>7.605345715171005</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.559883973583267</v>
+        <v>7.544660689389797</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.055082929245215</v>
+        <v>8.036335901363742</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.044447267076349</v>
+        <v>7.061087289607572</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.65293792508331</v>
+        <v>7.652834158137222</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.232944398749205</v>
+        <v>7.246379005311225</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.803279080674954</v>
+        <v>7.8014891880426</v>
       </c>
     </row>
     <row r="22">
@@ -1106,13 +1106,13 @@
         <v>6.360364503715576</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.021493723937603</v>
+        <v>7.021493723937602</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>6.542372930824359</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.20269291186246</v>
+        <v>7.202692911862463</v>
       </c>
     </row>
     <row r="23">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.593345695412557</v>
+        <v>6.592994649586202</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.29224779762234</v>
+        <v>7.289697278174772</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.109337856221385</v>
+        <v>6.131726662343786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.862265041692849</v>
+        <v>6.878386439243127</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.388313601385007</v>
+        <v>6.371805372507922</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.089808222567857</v>
+        <v>7.087140306580786</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.022696970741249</v>
+        <v>7.011242719699339</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.640639423483623</v>
+        <v>7.631191239302784</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.562967466855114</v>
+        <v>6.594101766477581</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.163075094308574</v>
+        <v>7.184528566077815</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.715991568704522</v>
+        <v>6.707188403646478</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.315175862243522</v>
+        <v>7.311081690880902</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>7.687208783450733</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>8.136683293640823</v>
+        <v>8.136683293640822</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>7.449478316325241</v>
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.636240797878489</v>
+        <v>7.631009050221135</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.073917671207742</v>
+        <v>8.077490670441184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.390398829251279</v>
+        <v>7.388822329915494</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.851472356028464</v>
+        <v>7.850971594536617</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.526092579124516</v>
+        <v>7.524515001550536</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>7.977067147232067</v>
+        <v>7.9730144215483</v>
       </c>
     </row>
     <row r="27">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.740885704474447</v>
+        <v>7.739655914160555</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.192722412892856</v>
+        <v>8.192624677428398</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.507693502597301</v>
+        <v>7.503282782828641</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.950273083764755</v>
+        <v>7.953747884755118</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>7.6077461089814</v>
+        <v>7.604388479578224</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>8.056200373501252</v>
+        <v>8.053218445052401</v>
       </c>
     </row>
     <row r="28">
